--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFM\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BC312D-1396-4013-B7B6-DF5DBE3596B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2561BDD7-36F6-497C-B35F-FEE8FA7A0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67284D23-7469-405F-8513-A3AFF9D06EE0}"/>
   </bookViews>
@@ -27,310 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Victor Martinez Rech</author>
-  </authors>
-  <commentList>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{A9DB8DDA-C8F2-4497-93FC-684E7A660507}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Causas de la censura, no si los datos están censurados</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{09982E04-79F0-4D6D-B9C5-5E63CDE70B61}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Que diguin específicament que es compleixen les assumpcions. No només un d'ells. Per exemple que diguin que es compleixen les assumpcions de riscos proporcionals
-Assumpcions: proportional hazard</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{CC229BD0-EF02-4E8A-9E68-0A4B556C3980}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Que s'indiqui el nombre de participants en risk. En el gràfic pot indica-ho a sota</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{A0362FE6-46F5-429F-9578-9D40148E3CE7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-en comptes de representar la supervivència en el gràfics, es reporta l'acumulada. És un gràfic que està al revés de la corba de supervivència, és a dir, cap amunt en comptes de cap avall</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{DB857A6D-3C52-4400-83E1-E254A0DCAF5B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not applicable si no arriba al 50% la corba de supervivència
-Si no posen els intervals, posem partial
-sobretot tindrem No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{FA816496-C4F0-4698-9699-E29D53B5E8AC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not applicable si només hi ha una corba!! Dues mínim, i que indiquin els mètodes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{E9F8ED95-273C-40BC-AC22-BDFE97C776DB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not applicable si només hi ha una corba!! Si hi han dues, que reportin els P-valors</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{F9701F2C-6B66-450D-809E-88B1CB3EDD9A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No només si hi ha un model, sinó que explica les variables (conjunt). Log-rank no aplica (és ajustat), kaplan-meier sense res més no aplica. Només si diuen el model de regresisó que fan servir</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{41AE097A-26C2-496E-8445-2D34547F8DC8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Si és un model de Cox, que es reportin els Hazard ratios. En el cas del weibull les betes, etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{0F3F8D13-23D1-4EBA-A9F5-887466688C9F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Normalmente es con censura a la izquierda</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{72D3072D-DCDF-454E-830E-33B11FA8C86E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time dependent covariates!! 
-Compte amb que posi time-dependent que poden no ser de les covariables!!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{97B46DFD-B98C-46D8-9350-0440A83669EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Victor Martinez Rech:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Events que competeixen entre si. 
-Exemple: que et moris per càncer o que et moris per un infart. Si et mors d'un, no podràs morir de l'altre
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="869">
   <si>
@@ -2945,7 +2641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2960,19 +2656,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3311,11 +2994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2294E1C6-D97C-4196-B999-CA0EF39C19F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2294E1C6-D97C-4196-B999-CA0EF39C19F1}">
   <dimension ref="A1:BR140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="BP21" sqref="BP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="112.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32709,8 +32392,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS140" xr:uid="{0E50B9A0-3402-48C2-AB95-246022EE52A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>